--- a/bid-service/bid-soybean/src/main/resources/download/group.xlsx
+++ b/bid-service/bid-soybean/src/main/resources/download/group.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19180" windowHeight="6840"/>
+    <workbookView windowWidth="18510" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+  <si>
+    <t>父组织名称</t>
+  </si>
   <si>
     <t>组织名称</t>
   </si>
@@ -24,28 +27,64 @@
     <t>组织类型</t>
   </si>
   <si>
-    <t>父组织名称</t>
-  </si>
-  <si>
-    <t>二级组织1</t>
+    <t>管理员姓名</t>
+  </si>
+  <si>
+    <t>管理员电话</t>
+  </si>
+  <si>
+    <t>单位地址</t>
+  </si>
+  <si>
+    <t>单位详细地址</t>
+  </si>
+  <si>
+    <t>模板说明</t>
+  </si>
+  <si>
+    <t>一级组织</t>
+  </si>
+  <si>
+    <t>二级组织A</t>
   </si>
   <si>
     <t>组织</t>
   </si>
   <si>
-    <t>一级组织</t>
-  </si>
-  <si>
-    <t>二级组织2</t>
-  </si>
-  <si>
-    <t>三级组织1</t>
+    <t>二级组织B</t>
+  </si>
+  <si>
+    <t>一、一级组织名称为注册页面填写的机构名称</t>
+  </si>
+  <si>
+    <t>三级组织A</t>
   </si>
   <si>
     <t>个人</t>
   </si>
   <si>
-    <t>三级组织2</t>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>北京市，北京市，北京市</t>
+  </si>
+  <si>
+    <t>xxxxxxxxxxxx</t>
+  </si>
+  <si>
+    <t>三级组织B</t>
+  </si>
+  <si>
+    <t>二、组织全称自动生成，格式为为父组织名字加组织名称（如一级组织_二级组织A），全称不能重复</t>
+  </si>
+  <si>
+    <t>三、如果填写了联系电话，当用户注册账号时，会根据联系电话自动加入群组，并成为此个人机构管理员，此功能只针对个人组织联系人，联系电话重复时只加入第一个的群组</t>
+  </si>
+  <si>
+    <t>四、单位地址格式必须包含2个中文逗号如北京市，北京市，海淀区</t>
   </si>
 </sst>
 </file>
@@ -54,11 +93,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +116,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -84,13 +144,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -98,12 +197,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -111,30 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,55 +259,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +282,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -240,7 +348,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,79 +408,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,73 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,6 +473,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -448,35 +511,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +539,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,16 +593,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,124 +611,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1024,20 +1090,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="31.0909090909091" customWidth="1"/>
-    <col min="2" max="2" width="21.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="24.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="15.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="20.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="11.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="22.6363636363636" customWidth="1"/>
+    <col min="7" max="7" width="20.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,55 +1117,258 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="8:13">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="8:13">
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="8:13">
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="8:13">
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="8:13">
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="8:13">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="8:13">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="8:13">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="8:13">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="8:13">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="8:13">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="8:13">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="8:13">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="8:13">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="8:13">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H1:M2"/>
+    <mergeCell ref="H3:M4"/>
+    <mergeCell ref="H5:M6"/>
+    <mergeCell ref="H7:M9"/>
+    <mergeCell ref="H10:M11"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5 C6:C1048576">
       <formula1>"组织,个人"</formula1>
     </dataValidation>
   </dataValidations>

--- a/bid-service/bid-soybean/src/main/resources/download/group.xlsx
+++ b/bid-service/bid-soybean/src/main/resources/download/group.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>单位详细地址</t>
   </si>
@@ -57,10 +57,6 @@
   </si>
   <si>
     <t>三级机构2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级机构2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,12 +463,84 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>二级机构2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>请从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>开始填写</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上级机构</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>下级机构</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,6 +637,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -643,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,6 +816,10 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -729,6 +828,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1037,7 +1139,7 @@
   <dimension ref="A1:L1001"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1049,7 +1151,7 @@
     <col min="5" max="5" width="25.109375" style="17" customWidth="1"/>
     <col min="6" max="6" width="31.21875" style="17" customWidth="1"/>
     <col min="7" max="7" width="1.77734375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="9" style="17"/>
+    <col min="8" max="8" width="12.77734375" style="17" customWidth="1"/>
     <col min="9" max="9" width="11.5546875" style="17" customWidth="1"/>
     <col min="10" max="10" width="10.44140625" style="17" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" style="17" customWidth="1"/>
@@ -1058,22 +1160,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19.8" customHeight="1">
-      <c r="A1" s="8" t="s">
-        <v>25</v>
+      <c r="A1" s="26" t="s">
+        <v>34</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>26</v>
+      <c r="B1" s="26" t="s">
+        <v>35</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>30</v>
+      <c r="E1" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="18" t="s">
@@ -1091,16 +1193,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="18" t="s">
@@ -1119,14 +1221,14 @@
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
       <c r="E3" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="18" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="20"/>
@@ -1141,7 +1243,7 @@
       <c r="C4" s="13"/>
       <c r="D4" s="9"/>
       <c r="E4" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="11"/>
       <c r="H4" s="20"/>
@@ -1161,28 +1263,28 @@
       <c r="C5" s="13"/>
       <c r="D5" s="9"/>
       <c r="E5" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11"/>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.8" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="11"/>
       <c r="J6" s="1" t="s">
@@ -1198,64 +1300,64 @@
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="21" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-    </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1">
+      <c r="A9" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" ht="37.200000000000003" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" ht="37.200000000000003" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:12" ht="45" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" ht="21" customHeight="1">
+      <c r="A13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:12" ht="21" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -1279,10 +1381,10 @@
     </row>
     <row r="15" spans="1:12" ht="21.6" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>1</v>
@@ -1291,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>0</v>
@@ -1299,7 +1401,7 @@
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="1:12" ht="22.2" customHeight="1">
+    <row r="16" spans="1:12" ht="26.4" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
@@ -1307,7 +1409,9 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="22" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="23.4" customHeight="1">
       <c r="A17" s="3"/>
@@ -9192,7 +9296,7 @@
       <c r="F1001" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="6">
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A8:F8"/>
